--- a/BOM/Roof Rack BOM.xlsx
+++ b/BOM/Roof Rack BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kseeg\Documents\Git\Roof Rack Adapters\2017-traverse-rack-adapters\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401B6BB0-F54A-4166-B821-B400559AC62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E35F94-872A-4A59-8211-7D6C742AE8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B092EA79-4047-450D-84F0-A80C06F52E60}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Item</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Steel Low-Profile Narrow-Base Weld Nuts, M8 x 1.25 mm Thread Size (Pack of 10)</t>
+  </si>
+  <si>
+    <t>Multipurpose Neoprene Rubber Sheet, 12" x 12", 1/4" Thick, 40A (Medium Soft)</t>
+  </si>
+  <si>
+    <t>1370N37</t>
   </si>
 </sst>
 </file>
@@ -486,7 +492,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,49 +560,103 @@
         <v>13.26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>31.95</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H11" si="0">F3*G3</f>
+        <v>31.95</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">

--- a/BOM/Roof Rack BOM.xlsx
+++ b/BOM/Roof Rack BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kseeg\Documents\Git\Roof Rack Adapters\2017-traverse-rack-adapters\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E35F94-872A-4A59-8211-7D6C742AE8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFAFDA2-5BEE-41A2-98D9-876040275E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B092EA79-4047-450D-84F0-A80C06F52E60}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Item</t>
   </si>
@@ -71,10 +71,55 @@
     <t>Steel Low-Profile Narrow-Base Weld Nuts, M8 x 1.25 mm Thread Size (Pack of 10)</t>
   </si>
   <si>
-    <t>Multipurpose Neoprene Rubber Sheet, 12" x 12", 1/4" Thick, 40A (Medium Soft)</t>
-  </si>
-  <si>
-    <t>1370N37</t>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>JLCCNC</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Top Piece, set of 4</t>
+  </si>
+  <si>
+    <t>Middle Piece, set of 4</t>
+  </si>
+  <si>
+    <t>Bottom Piece, set of 8</t>
+  </si>
+  <si>
+    <t>91458A115</t>
+  </si>
+  <si>
+    <t>Loctite</t>
+  </si>
+  <si>
+    <t>Loctite 243 Thread Lock, Medium Strength, 0.34Oz</t>
+  </si>
+  <si>
+    <t>92148A336</t>
+  </si>
+  <si>
+    <t>18-8 Stainless Steel Split Lock Washer, Black-Oxide, for M8 Screw Size, 8.5 mm ID, 14.8 mm OD, set of 10</t>
+  </si>
+  <si>
+    <t>High-Strength Class 10.9 Steel Hex Head Screw, Blue-Dyed Zinc-Plated, M8 x 1.25 mm Thread, 40 mm Long, Pack of 10</t>
+  </si>
+  <si>
+    <t>90180A624</t>
+  </si>
+  <si>
+    <t>High-Strength Class 10.9 Steel Hex Head Screw, Blue-Dyed Zinc-Plated, M6 x 1 mm Thread, 35 mm Long, Pack of 25</t>
+  </si>
+  <si>
+    <t>90180A615</t>
+  </si>
+  <si>
+    <t>Multipurpose Neoprene Rubber Strip, with Crisscross Texture, Adhesive-Back, 1" x 36" x 3/16"</t>
+  </si>
+  <si>
+    <t>3846N42</t>
   </si>
 </sst>
 </file>
@@ -84,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +147,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -492,7 +543,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,10 +616,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -580,74 +631,200 @@
         <v>1</v>
       </c>
       <c r="G3" s="5">
-        <v>31.95</v>
+        <v>12.8</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H11" si="0">F3*G3</f>
-        <v>31.95</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>59.08</v>
+      </c>
       <c r="H4" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59.08</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>159.44</v>
+      </c>
       <c r="H5" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>159.44</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>75.28</v>
+      </c>
       <c r="H6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75.28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>18.420000000000002</v>
+      </c>
       <c r="H7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18.420000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3.62</v>
+      </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>9.14</v>
+      </c>
       <c r="H9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>10.97</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -675,6 +852,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BOM/Roof Rack BOM.xlsx
+++ b/BOM/Roof Rack BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kseeg\Documents\Git\Roof Rack Adapters\2017-traverse-rack-adapters\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFAFDA2-5BEE-41A2-98D9-876040275E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47958DB5-5A91-407E-9D7F-AC96C6F95104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B092EA79-4047-450D-84F0-A80C06F52E60}"/>
   </bookViews>
@@ -116,10 +116,10 @@
     <t>90180A615</t>
   </si>
   <si>
-    <t>Multipurpose Neoprene Rubber Strip, with Crisscross Texture, Adhesive-Back, 1" x 36" x 3/16"</t>
-  </si>
-  <si>
-    <t>3846N42</t>
+    <t>Multipurpose Neoprene Rubber Strip, with Crisscross Texture, Adhesive-Back, 1" x 36" x 1/16"</t>
+  </si>
+  <si>
+    <t>3846N38</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,11 +631,11 @@
         <v>1</v>
       </c>
       <c r="G3" s="5">
-        <v>12.8</v>
+        <v>5.81</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H11" si="0">F3*G3</f>
-        <v>12.8</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
